--- a/Denver_Traffic_Meta_Data.xlsx
+++ b/Denver_Traffic_Meta_Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deidra\Coursera-IBM\9 CAPSTONE SUBMISSION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deidr\CODE\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3BB23C-FD2E-4928-A487-FA227FDBCFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{386CCAC3-18B2-4090-8A75-5A171573D969}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meta_Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Variable</t>
   </si>
@@ -301,13 +301,31 @@
   </si>
   <si>
     <t>Indicates the mode (means of travel) of a second person seriously injured as a result of the crash, not related to traffic unit number</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Jaccard Score</t>
+  </si>
+  <si>
+    <t>https://medium.com/denvertraffic/traffic-accident-analysis-and-predictive-indicators-in-denver-colorado-cbf3fd1bad00</t>
+  </si>
+  <si>
+    <t>Refund Deposit- Unit A 2601 W Hampden Ave</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vHvnt9AIaVAiXMwaXHtjiKEPqmrlcMbm/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +340,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +368,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -345,18 +383,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,25 +727,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EE8AB0-299F-4D1A-A692-CABC46BCBE83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="137.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -718,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -726,7 +785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -734,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -742,7 +801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -750,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -758,7 +817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -766,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -774,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -782,7 +841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -790,7 +849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -798,7 +857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -806,7 +865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -814,7 +873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -822,7 +881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -830,7 +889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -838,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -846,7 +905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -854,7 +913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -862,7 +921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -870,7 +929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -878,7 +937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -886,7 +945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -894,7 +953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -902,7 +961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -910,7 +969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -918,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -926,7 +985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -934,7 +993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -942,7 +1001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
@@ -950,7 +1009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -958,7 +1017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -966,7 +1025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -974,7 +1033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -982,7 +1041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -990,7 +1049,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -998,7 +1057,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1006,7 +1065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -1014,7 +1073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -1022,7 +1081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
@@ -1030,7 +1089,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -1038,7 +1097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
@@ -1046,7 +1105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
@@ -1058,4 +1117,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.72050000000000003</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="G8" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>